--- a/mySystem/mySystem/xls/LDPEBag/LDPE 制袋内包标签.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/LDPE 制袋内包标签.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\LDPEBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LDPE袋-中文" sheetId="1" r:id="rId1"/>
     <sheet name="LDPE袋-英文" sheetId="2" r:id="rId2"/>
     <sheet name="Common" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
@@ -668,6 +668,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -712,9 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1001,7 +1001,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1014,60 +1014,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="str">
+      <c r="A2" s="25" t="str">
         <f>CONCATENATE("产品名称：",Common!B1)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <f>Common!B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <f>Common!B3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <f>Common!B4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="15">
         <f>Common!B5</f>
         <v>0</v>
       </c>
@@ -1096,12 +1096,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1126,67 +1126,67 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="28" t="str">
         <f>CONCATENATE("Name：",Common!E1)</f>
         <v>Name：</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <f>Common!E2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <f>Common!E3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <f>Common!E4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
@@ -1221,12 +1221,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/mySystem/mySystem/xls/LDPEBag/LDPE 制袋内包标签.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/LDPE 制袋内包标签.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PALL-MFG\Desktop\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LDPE袋-英文" sheetId="2" r:id="rId2"/>
     <sheet name="Common" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,52 +28,155 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
+    <t>数 量：</t>
+  </si>
+  <si>
+    <t>Pall AUSTAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity：</t>
+  </si>
+  <si>
+    <t>Pack No.:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Open only in a controlled dust free clean room   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规格：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装序号:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">产品批号： </t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
+        <sz val="10"/>
         <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t>颇尔奥星</t>
+      <t/>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>颇尔奥星</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>产品编码：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">有效期至: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请在洁净室内打开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Batch No.</t>
+    </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品规格：</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品批号：</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -94,93 +197,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>生产日期：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数 量：</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效期至</t>
+      <t>Mfg Date</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包装序号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请在洁净室内打开</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pall AUSTAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Batch No.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
@@ -189,47 +210,7 @@
       </rPr>
       <t>：</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Mfg Date</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantity：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -237,7 +218,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
@@ -248,87 +228,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Pack No.:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Open only in a controlled dust free clean room   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,21 +274,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -394,14 +287,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -409,13 +301,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -622,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,53 +521,110 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,33 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,7 +653,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -998,110 +917,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="str">
+      <c r="A2" s="23" t="str">
         <f>CONCATENATE("产品名称：",Common!B1)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9">
         <f>Common!B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9">
         <f>Common!B3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9">
         <f>Common!B4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8">
         <f>Common!B5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <f>Common!B7</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
         <f>Common!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
         <f>Common!B8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1113,9 +1034,9 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.17" right="0.17" top="0.52" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="258" scale="97" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1123,11 +1044,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1139,94 +1061,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="str">
+      <c r="A2" s="31" t="str">
         <f>CONCATENATE("Name：",Common!E1)</f>
         <v>Name：</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <f>Common!E2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
         <f>Common!E3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="9">
         <f>Common!E4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
         <f>Common!E5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
         <f>Common!E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6">
         <f>Common!E6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
         <f>Common!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1238,9 +1160,9 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.17" right="0.17" top="0.52" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="258" scale="94" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1256,70 +1178,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/mySystem/mySystem/xls/LDPEBag/LDPE 制袋内包标签.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/LDPE 制袋内包标签.xlsx
@@ -511,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +539,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -548,13 +572,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,8 +590,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -575,34 +599,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,26 +626,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,77 +919,77 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="13.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="str">
+      <c r="A2" s="26" t="str">
         <f>CONCATENATE("产品名称：",Common!B1)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="17">
         <f>Common!B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="17">
         <f>Common!B3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="17">
         <f>Common!B4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="8">
         <f>Common!B5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="4">
@@ -1001,14 +998,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="6">
         <f>Common!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="3">
@@ -1017,12 +1014,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1049,7 +1046,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1061,64 +1058,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="str">
+      <c r="A2" s="35" t="str">
         <f>CONCATENATE("Name：",Common!E1)</f>
         <v>Name：</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="17">
         <f>Common!E2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="17">
         <f>Common!E3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="17">
         <f>Common!E4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="5">
         <f>Common!E5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4">
@@ -1127,14 +1124,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6">
         <f>Common!E6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3">
@@ -1143,12 +1140,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
